--- a/ON/bt/strategyON_20230715.xlsx
+++ b/ON/bt/strategyON_20230715.xlsx
@@ -600,7 +600,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>50.6%</t>
+          <t>49.3%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -676,12 +676,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>19.0%</t>
+          <t>19.5%</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-12.3%</t>
+          <t>-11.8%</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>71.7%</t>
+          <t>67.9%</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>85.6%</t>
+          <t>85.9%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -829,12 +829,12 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>7.0%</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-2.4%</t>
+          <t>-2.6%</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>71.9%</t>
+          <t>72.4%</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>15.2%</t>
+          <t>16.2%</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>31.8%</t>
+          <t>32.0%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>8.2%</t>
+          <t>8.3%</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>54.5%</t>
+          <t>54.4%</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>8.1%</t>
+          <t>8.7%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>110.1%</t>
+          <t>110.6%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1069,16 +1069,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>58.5%</t>
+          <t>58.6%</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>8.7%</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>105.7%</t>
+          <t>106.3%</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>40.6%</t>
+          <t>40.7%</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>18.5%</t>
+          <t>19.7%</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>54.3%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1227,11 +1227,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>53.9%</t>
+          <t>54.0%</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>-158.7%</t>
+          <t>-158.8%</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>1.8%</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>142.5%</t>
+          <t>143.1%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1375,16 +1375,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>59.9%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023-07-13</t>
+          <t>2023-07-14</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1436,17 +1436,17 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>9.5%</t>
+          <t>9.4%</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>136.7%</t>
+          <t>137.3%</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>37.4%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>15.9%</t>
+          <t>17.2%</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1658"/>
+  <dimension ref="A1:G1659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39654,7 +39654,7 @@
         <v>45120</v>
       </c>
       <c r="B1658" t="n">
-        <v>2.952733880805584</v>
+        <v>2.951305404149857</v>
       </c>
       <c r="C1658" t="n">
         <v>3.007129731771911</v>
@@ -39670,6 +39670,29 @@
       </c>
       <c r="G1658" t="n">
         <v>4.269735583544605</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45121</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>2.91427964540041</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>3.016801062026903</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>1.511124603602138</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>3.620894479154011</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>2.110343638849038</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>4.283007245336328</v>
       </c>
     </row>
   </sheetData>
